--- a/Code/Results/Cases/Case_0_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1532979231344314</v>
+        <v>0.05053916972009631</v>
       </c>
       <c r="D2">
-        <v>0.004605588602924371</v>
+        <v>0.001474349248763218</v>
       </c>
       <c r="E2">
-        <v>0.002018111706767689</v>
+        <v>0.05083759292226131</v>
       </c>
       <c r="F2">
-        <v>0.9810735512115656</v>
+        <v>0.5092771424254181</v>
       </c>
       <c r="G2">
-        <v>0.9567484567415505</v>
+        <v>0.3939498039479759</v>
       </c>
       <c r="H2">
-        <v>0.4845267827499242</v>
+        <v>0.4304703099388547</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.652923244268862</v>
+        <v>0.8886877327032181</v>
       </c>
       <c r="N2">
-        <v>4.117859918412478</v>
+        <v>1.779252987943323</v>
       </c>
       <c r="O2">
-        <v>2.997178423421531</v>
+        <v>1.589036467503917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1324239267104019</v>
+        <v>0.04480434375342668</v>
       </c>
       <c r="D3">
-        <v>0.00401632345207048</v>
+        <v>0.001283251391759777</v>
       </c>
       <c r="E3">
-        <v>0.004289773900039706</v>
+        <v>0.05411985105376549</v>
       </c>
       <c r="F3">
-        <v>0.8525010825908055</v>
+        <v>0.4792200641138038</v>
       </c>
       <c r="G3">
-        <v>0.8266498572617138</v>
+        <v>0.362067737511552</v>
       </c>
       <c r="H3">
-        <v>0.4288600075488631</v>
+        <v>0.4199052581246576</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.306844459446125</v>
+        <v>0.7810507139676162</v>
       </c>
       <c r="N3">
-        <v>3.663061298663479</v>
+        <v>1.628484058654209</v>
       </c>
       <c r="O3">
-        <v>2.604411034411527</v>
+        <v>1.498953055692624</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1197488814984951</v>
+        <v>0.0412986163176754</v>
       </c>
       <c r="D4">
-        <v>0.003654109187701593</v>
+        <v>0.001165518968425872</v>
       </c>
       <c r="E4">
-        <v>0.006179244366709108</v>
+        <v>0.05628346368258419</v>
       </c>
       <c r="F4">
-        <v>0.7750254905766809</v>
+        <v>0.4611257301856426</v>
       </c>
       <c r="G4">
-        <v>0.7482079590489121</v>
+        <v>0.3427613838968853</v>
       </c>
       <c r="H4">
-        <v>0.3955202220179928</v>
+        <v>0.4137109623053874</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.094694116762824</v>
+        <v>0.7148008982813536</v>
       </c>
       <c r="N4">
-        <v>3.384357969993516</v>
+        <v>1.536058465213614</v>
       </c>
       <c r="O4">
-        <v>2.368045055782034</v>
+        <v>1.444810740166986</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1146143937635884</v>
+        <v>0.03987384526845972</v>
       </c>
       <c r="D5">
-        <v>0.003506358866477655</v>
+        <v>0.001117447496703505</v>
       </c>
       <c r="E5">
-        <v>0.007063388414374913</v>
+        <v>0.05720210856645425</v>
       </c>
       <c r="F5">
-        <v>0.7437815020086589</v>
+        <v>0.4538423500840025</v>
       </c>
       <c r="G5">
-        <v>0.7165606363724635</v>
+        <v>0.3349609454740374</v>
       </c>
       <c r="H5">
-        <v>0.3821250086894423</v>
+        <v>0.4112601324958689</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.008292813877503</v>
+        <v>0.6877648806897412</v>
       </c>
       <c r="N5">
-        <v>3.270902564908084</v>
+        <v>1.49843577548404</v>
       </c>
       <c r="O5">
-        <v>2.272795232319112</v>
+        <v>1.42303945874869</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1137635316135572</v>
+        <v>0.03963749364594094</v>
       </c>
       <c r="D6">
-        <v>0.003481815157321932</v>
+        <v>0.001109459715097572</v>
       </c>
       <c r="E6">
-        <v>0.00721681075478163</v>
+        <v>0.05735687108794019</v>
       </c>
       <c r="F6">
-        <v>0.7386121107347918</v>
+        <v>0.4526383833542127</v>
       </c>
       <c r="G6">
-        <v>0.7113236334053425</v>
+        <v>0.3336697189851634</v>
       </c>
       <c r="H6">
-        <v>0.3799117159237113</v>
+        <v>0.4108576011172858</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.993948108685132</v>
+        <v>0.6832732823300773</v>
       </c>
       <c r="N6">
-        <v>3.252070036082188</v>
+        <v>1.492191195483997</v>
       </c>
       <c r="O6">
-        <v>2.257040004083194</v>
+        <v>1.419441944818033</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1196795180082262</v>
+        <v>0.04127938586999846</v>
       </c>
       <c r="D7">
-        <v>0.003652117214224759</v>
+        <v>0.001164871035888027</v>
       </c>
       <c r="E7">
-        <v>0.006190718936105302</v>
+        <v>0.05629570366196179</v>
       </c>
       <c r="F7">
-        <v>0.7746028480693923</v>
+        <v>0.4610271394244592</v>
       </c>
       <c r="G7">
-        <v>0.7477799185185177</v>
+        <v>0.342655913838243</v>
       </c>
       <c r="H7">
-        <v>0.3953388217607028</v>
+        <v>0.4136776126512416</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.093528712959213</v>
+        <v>0.7144364355493025</v>
       </c>
       <c r="N7">
-        <v>3.38282741400613</v>
+        <v>1.53555089848183</v>
       </c>
       <c r="O7">
-        <v>2.366756317410449</v>
+        <v>1.444515944619042</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1460680965714829</v>
+        <v>0.04855855672559528</v>
       </c>
       <c r="D8">
-        <v>0.004402464428153507</v>
+        <v>0.001408544397047962</v>
       </c>
       <c r="E8">
-        <v>0.002692326818373447</v>
+        <v>0.05193833640862211</v>
       </c>
       <c r="F8">
-        <v>0.9364112639117792</v>
+        <v>0.4988382434003285</v>
       </c>
       <c r="G8">
-        <v>0.9115646543618681</v>
+        <v>0.3829005436759303</v>
       </c>
       <c r="H8">
-        <v>0.4651460046645184</v>
+        <v>0.4267666056344837</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.533502071664529</v>
+        <v>0.8516086809471091</v>
       </c>
       <c r="N8">
-        <v>3.960920289532993</v>
+        <v>1.727239951245508</v>
       </c>
       <c r="O8">
-        <v>2.860673289931839</v>
+        <v>1.557731870001561</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1991810000582888</v>
+        <v>0.06295881630227029</v>
       </c>
       <c r="D9">
-        <v>0.005873244390695476</v>
+        <v>0.00188301898717036</v>
       </c>
       <c r="E9">
-        <v>0.0002589284699858752</v>
+        <v>0.04458506273144214</v>
       </c>
       <c r="F9">
-        <v>1.267387445662294</v>
+        <v>0.5758768262664091</v>
       </c>
       <c r="G9">
-        <v>1.24629266827219</v>
+        <v>0.4639921232089819</v>
       </c>
       <c r="H9">
-        <v>0.6096877058274401</v>
+        <v>0.4547675485921729</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.400784867472709</v>
+        <v>1.119274021068847</v>
       </c>
       <c r="N9">
-        <v>5.099890290226824</v>
+        <v>2.104132684427839</v>
       </c>
       <c r="O9">
-        <v>3.873863255755737</v>
+        <v>1.78912283365554</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.239400537012699</v>
+        <v>0.0736205858625425</v>
       </c>
       <c r="D10">
-        <v>0.006957997619895906</v>
+        <v>0.002229310950426111</v>
       </c>
       <c r="E10">
-        <v>0.00193929455718278</v>
+        <v>0.03992928257694128</v>
       </c>
       <c r="F10">
-        <v>1.521956001196912</v>
+        <v>0.6342846482094444</v>
       </c>
       <c r="G10">
-        <v>1.503709004272821</v>
+        <v>0.5249482728020496</v>
       </c>
       <c r="H10">
-        <v>0.7220452977506397</v>
+        <v>0.4767805981864512</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.043521373814073</v>
+        <v>1.315060226785022</v>
       </c>
       <c r="N10">
-        <v>5.941602107482197</v>
+        <v>2.381433539546606</v>
       </c>
       <c r="O10">
-        <v>4.655449713562859</v>
+        <v>1.964994345450179</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2580471295217563</v>
+        <v>0.07848985866168334</v>
       </c>
       <c r="D11">
-        <v>0.007453720799485808</v>
+        <v>0.002386297562104289</v>
       </c>
       <c r="E11">
-        <v>0.003650839399802486</v>
+        <v>0.03797776431191924</v>
       </c>
       <c r="F11">
-        <v>1.640997622743313</v>
+        <v>0.6612584602212621</v>
       </c>
       <c r="G11">
-        <v>1.624108264370761</v>
+        <v>0.5529900601040652</v>
       </c>
       <c r="H11">
-        <v>0.7748682847003749</v>
+        <v>0.4871118650747519</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.337836852932824</v>
+        <v>1.403929410150184</v>
       </c>
       <c r="N11">
-        <v>6.326008577182222</v>
+        <v>2.507630204147233</v>
       </c>
       <c r="O11">
-        <v>5.021559085121169</v>
+        <v>2.046311345068602</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2651667155643054</v>
+        <v>0.08033655473910528</v>
       </c>
       <c r="D12">
-        <v>0.007641901486238112</v>
+        <v>0.002445661343060124</v>
       </c>
       <c r="E12">
-        <v>0.004453557315978962</v>
+        <v>0.03726307507434856</v>
       </c>
       <c r="F12">
-        <v>1.686610797181388</v>
+        <v>0.671531487568231</v>
       </c>
       <c r="G12">
-        <v>1.670248512301356</v>
+        <v>0.5636545334886591</v>
       </c>
       <c r="H12">
-        <v>0.7951512335280881</v>
+        <v>0.4910699680696098</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.449630560380385</v>
+        <v>1.437552522977612</v>
       </c>
       <c r="N12">
-        <v>6.471827748716805</v>
+        <v>2.555420990854714</v>
       </c>
       <c r="O12">
-        <v>5.16194196648587</v>
+        <v>2.077295028259925</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2636306447243868</v>
+        <v>0.07993871000778086</v>
       </c>
       <c r="D13">
-        <v>0.007601350452503652</v>
+        <v>0.002432880098087509</v>
       </c>
       <c r="E13">
-        <v>0.004273486465194321</v>
+        <v>0.03741590902867187</v>
       </c>
       <c r="F13">
-        <v>1.676762227569796</v>
+        <v>0.6693163907281701</v>
       </c>
       <c r="G13">
-        <v>1.66028578209631</v>
+        <v>0.5613557063034591</v>
       </c>
       <c r="H13">
-        <v>0.7907699051879149</v>
+        <v>0.4902154756935317</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.425537419008663</v>
+        <v>1.430312532385429</v>
       </c>
       <c r="N13">
-        <v>6.440411124405102</v>
+        <v>2.5451283341975</v>
       </c>
       <c r="O13">
-        <v>5.131626533115195</v>
+        <v>2.070613624151065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2586316399213899</v>
+        <v>0.07864173089369331</v>
       </c>
       <c r="D14">
-        <v>0.007469192424355953</v>
+        <v>0.00239118316311604</v>
       </c>
       <c r="E14">
-        <v>0.003713668313789498</v>
+        <v>0.03791847705088625</v>
       </c>
       <c r="F14">
-        <v>1.644739109111811</v>
+        <v>0.662102450091254</v>
       </c>
       <c r="G14">
-        <v>1.627892828783217</v>
+        <v>0.5538665136045893</v>
       </c>
       <c r="H14">
-        <v>0.7765311559958548</v>
+        <v>0.4874365798253564</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.347026917599393</v>
+        <v>1.406696209058609</v>
       </c>
       <c r="N14">
-        <v>6.337999922242091</v>
+        <v>2.511561949414272</v>
       </c>
       <c r="O14">
-        <v>5.033072114753224</v>
+        <v>2.048856557864497</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2555774811502829</v>
+        <v>0.07784766092331097</v>
       </c>
       <c r="D15">
-        <v>0.007388306343521833</v>
+        <v>0.002365631532779133</v>
       </c>
       <c r="E15">
-        <v>0.003391477938989862</v>
+        <v>0.03822949139090914</v>
       </c>
       <c r="F15">
-        <v>1.62519582801734</v>
+        <v>0.6576913552988088</v>
       </c>
       <c r="G15">
-        <v>1.60812482922131</v>
+        <v>0.5492851340097218</v>
       </c>
       <c r="H15">
-        <v>0.7678470461212612</v>
+        <v>0.4857404072398026</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.298983676611329</v>
+        <v>1.392226609244616</v>
       </c>
       <c r="N15">
-        <v>6.275304157089522</v>
+        <v>2.4910018079201</v>
       </c>
       <c r="O15">
-        <v>4.972939071504584</v>
+        <v>2.035554621181859</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2381896687476228</v>
+        <v>0.0733027576706462</v>
       </c>
       <c r="D16">
-        <v>0.006925657486146264</v>
+        <v>0.002219040099447511</v>
       </c>
       <c r="E16">
-        <v>0.0018480255365807</v>
+        <v>0.04006019987723297</v>
       </c>
       <c r="F16">
-        <v>1.514247253193858</v>
+        <v>0.6325300198437986</v>
       </c>
       <c r="G16">
-        <v>1.495913115857462</v>
+        <v>0.5231220260897658</v>
       </c>
       <c r="H16">
-        <v>0.7186304503234169</v>
+        <v>0.4761118326834151</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.024331422741653</v>
+        <v>1.309248349344202</v>
       </c>
       <c r="N16">
-        <v>5.916513568245762</v>
+        <v>2.373186933110503</v>
       </c>
       <c r="O16">
-        <v>4.631754986255032</v>
+        <v>1.959706664292924</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2276181292035915</v>
+        <v>0.0705195549099642</v>
       </c>
       <c r="D17">
-        <v>0.006642505507873153</v>
+        <v>0.002128967898769929</v>
       </c>
       <c r="E17">
-        <v>0.001156201651800748</v>
+        <v>0.04122617200752465</v>
       </c>
       <c r="F17">
-        <v>1.447060151431813</v>
+        <v>0.6171981794308294</v>
       </c>
       <c r="G17">
-        <v>1.427969761569102</v>
+        <v>0.507152361793004</v>
       </c>
       <c r="H17">
-        <v>0.6888990318979893</v>
+        <v>0.4702864774332056</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.856379815513321</v>
+        <v>1.258292739170741</v>
       </c>
       <c r="N17">
-        <v>5.69681772148806</v>
+        <v>2.30092119317078</v>
       </c>
       <c r="O17">
-        <v>4.425308938554451</v>
+        <v>1.913513906478215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2215701230154252</v>
+        <v>0.06892053265904963</v>
       </c>
       <c r="D18">
-        <v>0.0064798474613319</v>
+        <v>0.002077109934376153</v>
       </c>
       <c r="E18">
-        <v>0.0008462149596859536</v>
+        <v>0.04191244979674913</v>
       </c>
       <c r="F18">
-        <v>1.408716077031087</v>
+        <v>0.6084176841589937</v>
       </c>
       <c r="G18">
-        <v>1.389196295154761</v>
+        <v>0.4979964071009988</v>
       </c>
       <c r="H18">
-        <v>0.671957125648845</v>
+        <v>0.4669657502940936</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.759955964429139</v>
+        <v>1.228966170413059</v>
       </c>
       <c r="N18">
-        <v>5.570594002316284</v>
+        <v>2.259360927329112</v>
       </c>
       <c r="O18">
-        <v>4.30754594497688</v>
+        <v>1.887068440558778</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2195277124984045</v>
+        <v>0.06837943923056855</v>
       </c>
       <c r="D19">
-        <v>0.00642480547964297</v>
+        <v>0.002059543159592891</v>
       </c>
       <c r="E19">
-        <v>0.0007558339118878266</v>
+        <v>0.04214748664310375</v>
       </c>
       <c r="F19">
-        <v>1.395782986315993</v>
+        <v>0.6054512642119789</v>
       </c>
       <c r="G19">
-        <v>1.376118663693489</v>
+        <v>0.4949013813633485</v>
       </c>
       <c r="H19">
-        <v>0.6662471826091689</v>
+        <v>0.4658465311307225</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.727337124311674</v>
+        <v>1.219033615444374</v>
       </c>
       <c r="N19">
-        <v>5.5278797466421</v>
+        <v>2.245290345450655</v>
       </c>
       <c r="O19">
-        <v>4.267835075368168</v>
+        <v>1.87813559077091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2287400713448164</v>
+        <v>0.07081564469505963</v>
       </c>
       <c r="D20">
-        <v>0.00667262556081738</v>
+        <v>0.002138561537723405</v>
       </c>
       <c r="E20">
-        <v>0.001220620155362173</v>
+        <v>0.04110043072404479</v>
       </c>
       <c r="F20">
-        <v>1.454180786778437</v>
+        <v>0.6188263457869141</v>
       </c>
       <c r="G20">
-        <v>1.435170295650153</v>
+        <v>0.5088493145602513</v>
       </c>
       <c r="H20">
-        <v>0.6920473193138719</v>
+        <v>0.4709035040451397</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.874239735696946</v>
+        <v>1.263718951894802</v>
       </c>
       <c r="N20">
-        <v>5.720190030668221</v>
+        <v>2.308613511958015</v>
       </c>
       <c r="O20">
-        <v>4.447182548044111</v>
+        <v>1.918418419794193</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2600983118549323</v>
+        <v>0.07902260848796061</v>
       </c>
       <c r="D21">
-        <v>0.007507996712543985</v>
+        <v>0.002403432877585487</v>
       </c>
       <c r="E21">
-        <v>0.003873747760751112</v>
+        <v>0.03777019789664671</v>
       </c>
       <c r="F21">
-        <v>1.654129978144013</v>
+        <v>0.6642197636153924</v>
       </c>
       <c r="G21">
-        <v>1.637391940939864</v>
+        <v>0.5560650262067952</v>
       </c>
       <c r="H21">
-        <v>0.7807055339516467</v>
+        <v>0.4882515619740389</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.370077493898748</v>
+        <v>1.413633715564913</v>
       </c>
       <c r="N21">
-        <v>6.368073408486055</v>
+        <v>2.52142116855407</v>
       </c>
       <c r="O21">
-        <v>5.061970654521247</v>
+        <v>2.055241944010334</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2809382133223295</v>
+        <v>0.08440272494220835</v>
       </c>
       <c r="D22">
-        <v>0.008056730806600854</v>
+        <v>0.002576051577442229</v>
       </c>
       <c r="E22">
-        <v>0.006518919903588216</v>
+        <v>0.03573556309468051</v>
       </c>
       <c r="F22">
-        <v>1.78796216262991</v>
+        <v>0.6942289906527463</v>
       </c>
       <c r="G22">
-        <v>1.772787103251318</v>
+        <v>0.5871896812987529</v>
       </c>
       <c r="H22">
-        <v>0.8402993449099654</v>
+        <v>0.4998570324233356</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.696170293902398</v>
+        <v>1.51143769152533</v>
       </c>
       <c r="N22">
-        <v>6.792995555558321</v>
+        <v>2.660517831285119</v>
       </c>
       <c r="O22">
-        <v>5.474064588205295</v>
+        <v>2.145776512420753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2697810644379643</v>
+        <v>0.08152973922818774</v>
       </c>
       <c r="D23">
-        <v>0.007763555501174579</v>
+        <v>0.002483968368611755</v>
       </c>
       <c r="E23">
-        <v>0.005017123074604335</v>
+        <v>0.03680837993740593</v>
       </c>
       <c r="F23">
-        <v>1.716220133993247</v>
+        <v>0.6781810211586645</v>
       </c>
       <c r="G23">
-        <v>1.700202306835394</v>
+        <v>0.5705532492066538</v>
       </c>
       <c r="H23">
-        <v>0.8083298374436652</v>
+        <v>0.4936384200856025</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.521918741995805</v>
+        <v>1.459254340543723</v>
       </c>
       <c r="N23">
-        <v>6.566057106986761</v>
+        <v>2.586279464566587</v>
       </c>
       <c r="O23">
-        <v>5.253099483153107</v>
+        <v>2.097354050181195</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2282327493584262</v>
+        <v>0.0706817791512151</v>
       </c>
       <c r="D24">
-        <v>0.006659007890540636</v>
+        <v>0.002134224484905189</v>
       </c>
       <c r="E24">
-        <v>0.001191224585940898</v>
+        <v>0.04115722871708893</v>
       </c>
       <c r="F24">
-        <v>1.450960672183072</v>
+        <v>0.618090145961645</v>
       </c>
       <c r="G24">
-        <v>1.431914042353867</v>
+        <v>0.5080820437194404</v>
       </c>
       <c r="H24">
-        <v>0.690623510513575</v>
+        <v>0.4706244580260659</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.866164853955169</v>
+        <v>1.261265859152431</v>
       </c>
       <c r="N24">
-        <v>5.709623155861266</v>
+        <v>2.305135857049493</v>
       </c>
       <c r="O24">
-        <v>4.437290623026684</v>
+        <v>1.916200742575484</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1846305187054895</v>
+        <v>0.05904915692036639</v>
       </c>
       <c r="D25">
-        <v>0.005475012704087234</v>
+        <v>0.001755047841117019</v>
       </c>
       <c r="E25">
-        <v>0.0003685442036034381</v>
+        <v>0.04644467003064112</v>
       </c>
       <c r="F25">
-        <v>1.176085408241917</v>
+        <v>0.5547216813349962</v>
       </c>
       <c r="G25">
-        <v>1.15397274548323</v>
+        <v>0.4418165940236634</v>
       </c>
       <c r="H25">
-        <v>0.5696194636636847</v>
+        <v>0.4469408611618633</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.165409061349493</v>
+        <v>1.047011733965022</v>
       </c>
       <c r="N25">
-        <v>4.791037226571632</v>
+        <v>2.002088683901547</v>
       </c>
       <c r="O25">
-        <v>3.594012230579665</v>
+        <v>1.725505971028326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_200/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05053916972009631</v>
+        <v>0.1532979231341471</v>
       </c>
       <c r="D2">
-        <v>0.001474349248763218</v>
+        <v>0.004605588602924371</v>
       </c>
       <c r="E2">
-        <v>0.05083759292226131</v>
+        <v>0.002018111706795223</v>
       </c>
       <c r="F2">
-        <v>0.5092771424254181</v>
+        <v>0.9810735512115656</v>
       </c>
       <c r="G2">
-        <v>0.3939498039479759</v>
+        <v>0.9567484567416074</v>
       </c>
       <c r="H2">
-        <v>0.4304703099388547</v>
+        <v>0.4845267827499242</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8886877327032181</v>
+        <v>2.65292324426882</v>
       </c>
       <c r="N2">
-        <v>1.779252987943323</v>
+        <v>4.117859918412591</v>
       </c>
       <c r="O2">
-        <v>1.589036467503917</v>
+        <v>2.997178423421587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04480434375342668</v>
+        <v>0.1324239267104588</v>
       </c>
       <c r="D3">
-        <v>0.001283251391759777</v>
+        <v>0.0040163234521291</v>
       </c>
       <c r="E3">
-        <v>0.05411985105376549</v>
+        <v>0.004289773900023275</v>
       </c>
       <c r="F3">
-        <v>0.4792200641138038</v>
+        <v>0.8525010825908055</v>
       </c>
       <c r="G3">
-        <v>0.362067737511552</v>
+        <v>0.8266498572616854</v>
       </c>
       <c r="H3">
-        <v>0.4199052581246576</v>
+        <v>0.4288600075489768</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7810507139676162</v>
+        <v>2.306844459446111</v>
       </c>
       <c r="N3">
-        <v>1.628484058654209</v>
+        <v>3.663061298663479</v>
       </c>
       <c r="O3">
-        <v>1.498953055692624</v>
+        <v>2.604411034411527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0412986163176754</v>
+        <v>0.1197488814984951</v>
       </c>
       <c r="D4">
-        <v>0.001165518968425872</v>
+        <v>0.003654109187529286</v>
       </c>
       <c r="E4">
-        <v>0.05628346368258419</v>
+        <v>0.006179244366694439</v>
       </c>
       <c r="F4">
-        <v>0.4611257301856426</v>
+        <v>0.7750254905766809</v>
       </c>
       <c r="G4">
-        <v>0.3427613838968853</v>
+        <v>0.7482079590489548</v>
       </c>
       <c r="H4">
-        <v>0.4137109623053874</v>
+        <v>0.3955202220181206</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7148008982813536</v>
+        <v>2.094694116762767</v>
       </c>
       <c r="N4">
-        <v>1.536058465213614</v>
+        <v>3.384357969993488</v>
       </c>
       <c r="O4">
-        <v>1.444810740166986</v>
+        <v>2.368045055782034</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03987384526845972</v>
+        <v>0.1146143937635742</v>
       </c>
       <c r="D5">
-        <v>0.001117447496703505</v>
+        <v>0.003506358866246728</v>
       </c>
       <c r="E5">
-        <v>0.05720210856645425</v>
+        <v>0.007063388414361514</v>
       </c>
       <c r="F5">
-        <v>0.4538423500840025</v>
+        <v>0.7437815020086589</v>
       </c>
       <c r="G5">
-        <v>0.3349609454740374</v>
+        <v>0.7165606363724919</v>
       </c>
       <c r="H5">
-        <v>0.4112601324958689</v>
+        <v>0.3821250086894707</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6877648806897412</v>
+        <v>2.008292813877503</v>
       </c>
       <c r="N5">
-        <v>1.49843577548404</v>
+        <v>3.270902564908113</v>
       </c>
       <c r="O5">
-        <v>1.42303945874869</v>
+        <v>2.272795232319083</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03963749364594094</v>
+        <v>0.1137635316135572</v>
       </c>
       <c r="D6">
-        <v>0.001109459715097572</v>
+        <v>0.003481815157323709</v>
       </c>
       <c r="E6">
-        <v>0.05735687108794019</v>
+        <v>0.007216810754766337</v>
       </c>
       <c r="F6">
-        <v>0.4526383833542127</v>
+        <v>0.7386121107347918</v>
       </c>
       <c r="G6">
-        <v>0.3336697189851634</v>
+        <v>0.711323633405371</v>
       </c>
       <c r="H6">
-        <v>0.4108576011172858</v>
+        <v>0.379911715923825</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6832732823300773</v>
+        <v>1.993948108685103</v>
       </c>
       <c r="N6">
-        <v>1.492191195483997</v>
+        <v>3.252070036082074</v>
       </c>
       <c r="O6">
-        <v>1.419441944818033</v>
+        <v>2.257040004083194</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04127938586999846</v>
+        <v>0.1196795180082262</v>
       </c>
       <c r="D7">
-        <v>0.001164871035888027</v>
+        <v>0.003652117214221207</v>
       </c>
       <c r="E7">
-        <v>0.05629570366196179</v>
+        <v>0.006190718936090078</v>
       </c>
       <c r="F7">
-        <v>0.4610271394244592</v>
+        <v>0.7746028480693923</v>
       </c>
       <c r="G7">
-        <v>0.342655913838243</v>
+        <v>0.7477799185184608</v>
       </c>
       <c r="H7">
-        <v>0.4136776126512416</v>
+        <v>0.3953388217607028</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7144364355493025</v>
+        <v>2.093528712959213</v>
       </c>
       <c r="N7">
-        <v>1.53555089848183</v>
+        <v>3.382827414006158</v>
       </c>
       <c r="O7">
-        <v>1.444515944619042</v>
+        <v>2.366756317410449</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04855855672559528</v>
+        <v>0.1460680965713692</v>
       </c>
       <c r="D8">
-        <v>0.001408544397047962</v>
+        <v>0.004402464428400421</v>
       </c>
       <c r="E8">
-        <v>0.05193833640862211</v>
+        <v>0.002692326818387825</v>
       </c>
       <c r="F8">
-        <v>0.4988382434003285</v>
+        <v>0.9364112639117792</v>
       </c>
       <c r="G8">
-        <v>0.3829005436759303</v>
+        <v>0.9115646543619391</v>
       </c>
       <c r="H8">
-        <v>0.4267666056344837</v>
+        <v>0.4651460046646179</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8516086809471091</v>
+        <v>2.533502071664515</v>
       </c>
       <c r="N8">
-        <v>1.727239951245508</v>
+        <v>3.960920289533078</v>
       </c>
       <c r="O8">
-        <v>1.557731870001561</v>
+        <v>2.860673289931867</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06295881630227029</v>
+        <v>0.1991810000582745</v>
       </c>
       <c r="D9">
-        <v>0.00188301898717036</v>
+        <v>0.005873244390697252</v>
       </c>
       <c r="E9">
-        <v>0.04458506273144214</v>
+        <v>0.000258928469985209</v>
       </c>
       <c r="F9">
-        <v>0.5758768262664091</v>
+        <v>1.267387445662294</v>
       </c>
       <c r="G9">
-        <v>0.4639921232089819</v>
+        <v>1.246292668272218</v>
       </c>
       <c r="H9">
-        <v>0.4547675485921729</v>
+        <v>0.6096877058273265</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.119274021068847</v>
+        <v>3.400784867472709</v>
       </c>
       <c r="N9">
-        <v>2.104132684427839</v>
+        <v>5.099890290226938</v>
       </c>
       <c r="O9">
-        <v>1.78912283365554</v>
+        <v>3.873863255755793</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0736205858625425</v>
+        <v>0.2394005370124006</v>
       </c>
       <c r="D10">
-        <v>0.002229310950426111</v>
+        <v>0.006957997619707612</v>
       </c>
       <c r="E10">
-        <v>0.03992928257694128</v>
+        <v>0.001939294557144144</v>
       </c>
       <c r="F10">
-        <v>0.6342846482094444</v>
+        <v>1.521956001196912</v>
       </c>
       <c r="G10">
-        <v>0.5249482728020496</v>
+        <v>1.503709004272878</v>
       </c>
       <c r="H10">
-        <v>0.4767805981864512</v>
+        <v>0.7220452977505261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.315060226785022</v>
+        <v>4.043521373814073</v>
       </c>
       <c r="N10">
-        <v>2.381433539546606</v>
+        <v>5.941602107482197</v>
       </c>
       <c r="O10">
-        <v>1.964994345450179</v>
+        <v>4.655449713562803</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07848985866168334</v>
+        <v>0.2580471295216995</v>
       </c>
       <c r="D11">
-        <v>0.002386297562104289</v>
+        <v>0.007453720799574626</v>
       </c>
       <c r="E11">
-        <v>0.03797776431191924</v>
+        <v>0.003650839399782058</v>
       </c>
       <c r="F11">
-        <v>0.6612584602212621</v>
+        <v>1.640997622743285</v>
       </c>
       <c r="G11">
-        <v>0.5529900601040652</v>
+        <v>1.624108264370761</v>
       </c>
       <c r="H11">
-        <v>0.4871118650747519</v>
+        <v>0.7748682847004886</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.403929410150184</v>
+        <v>4.337836852932853</v>
       </c>
       <c r="N11">
-        <v>2.507630204147233</v>
+        <v>6.326008577182222</v>
       </c>
       <c r="O11">
-        <v>2.046311345068602</v>
+        <v>5.021559085121112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08033655473910528</v>
+        <v>0.265166715564348</v>
       </c>
       <c r="D12">
-        <v>0.002445661343060124</v>
+        <v>0.007641901486351799</v>
       </c>
       <c r="E12">
-        <v>0.03726307507434856</v>
+        <v>0.004453557315980294</v>
       </c>
       <c r="F12">
-        <v>0.671531487568231</v>
+        <v>1.686610797181373</v>
       </c>
       <c r="G12">
-        <v>0.5636545334886591</v>
+        <v>1.670248512301356</v>
       </c>
       <c r="H12">
-        <v>0.4910699680696098</v>
+        <v>0.7951512335280881</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.437552522977612</v>
+        <v>4.449630560380385</v>
       </c>
       <c r="N12">
-        <v>2.555420990854714</v>
+        <v>6.471827748716919</v>
       </c>
       <c r="O12">
-        <v>2.077295028259925</v>
+        <v>5.161941966485756</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07993871000778086</v>
+        <v>0.2636306447245147</v>
       </c>
       <c r="D13">
-        <v>0.002432880098087509</v>
+        <v>0.007601350452503652</v>
       </c>
       <c r="E13">
-        <v>0.03741590902867187</v>
+        <v>0.004273486465195209</v>
       </c>
       <c r="F13">
-        <v>0.6693163907281701</v>
+        <v>1.676762227569782</v>
       </c>
       <c r="G13">
-        <v>0.5613557063034591</v>
+        <v>1.660285782096196</v>
       </c>
       <c r="H13">
-        <v>0.4902154756935317</v>
+        <v>0.7907699051879433</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.430312532385429</v>
+        <v>4.425537419008648</v>
       </c>
       <c r="N13">
-        <v>2.5451283341975</v>
+        <v>6.440411124405045</v>
       </c>
       <c r="O13">
-        <v>2.070613624151065</v>
+        <v>5.131626533115195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07864173089369331</v>
+        <v>0.2586316399213899</v>
       </c>
       <c r="D14">
-        <v>0.00239118316311604</v>
+        <v>0.007469192424355953</v>
       </c>
       <c r="E14">
-        <v>0.03791847705088625</v>
+        <v>0.00371366831378861</v>
       </c>
       <c r="F14">
-        <v>0.662102450091254</v>
+        <v>1.644739109111811</v>
       </c>
       <c r="G14">
-        <v>0.5538665136045893</v>
+        <v>1.627892828783246</v>
       </c>
       <c r="H14">
-        <v>0.4874365798253564</v>
+        <v>0.7765311559957127</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.406696209058609</v>
+        <v>4.347026917599436</v>
       </c>
       <c r="N14">
-        <v>2.511561949414272</v>
+        <v>6.337999922242091</v>
       </c>
       <c r="O14">
-        <v>2.048856557864497</v>
+        <v>5.033072114753224</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07784766092331097</v>
+        <v>0.2555774811502687</v>
       </c>
       <c r="D15">
-        <v>0.002365631532779133</v>
+        <v>0.007388306343518281</v>
       </c>
       <c r="E15">
-        <v>0.03822949139090914</v>
+        <v>0.003391477938986753</v>
       </c>
       <c r="F15">
-        <v>0.6576913552988088</v>
+        <v>1.62519582801734</v>
       </c>
       <c r="G15">
-        <v>0.5492851340097218</v>
+        <v>1.608124829221367</v>
       </c>
       <c r="H15">
-        <v>0.4857404072398026</v>
+        <v>0.7678470461214033</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.392226609244616</v>
+        <v>4.298983676611329</v>
       </c>
       <c r="N15">
-        <v>2.4910018079201</v>
+        <v>6.275304157089522</v>
       </c>
       <c r="O15">
-        <v>2.035554621181859</v>
+        <v>4.972939071504641</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0733027576706462</v>
+        <v>0.2381896687476939</v>
       </c>
       <c r="D16">
-        <v>0.002219040099447511</v>
+        <v>0.006925657486092973</v>
       </c>
       <c r="E16">
-        <v>0.04006019987723297</v>
+        <v>0.001848025536587361</v>
       </c>
       <c r="F16">
-        <v>0.6325300198437986</v>
+        <v>1.514247253193858</v>
       </c>
       <c r="G16">
-        <v>0.5231220260897658</v>
+        <v>1.495913115857462</v>
       </c>
       <c r="H16">
-        <v>0.4761118326834151</v>
+        <v>0.7186304503233885</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.309248349344202</v>
+        <v>4.024331422741653</v>
       </c>
       <c r="N16">
-        <v>2.373186933110503</v>
+        <v>5.916513568245989</v>
       </c>
       <c r="O16">
-        <v>1.959706664292924</v>
+        <v>4.631754986254919</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0705195549099642</v>
+        <v>0.227618129203691</v>
       </c>
       <c r="D17">
-        <v>0.002128967898769929</v>
+        <v>0.006642505507791441</v>
       </c>
       <c r="E17">
-        <v>0.04122617200752465</v>
+        <v>0.001156201651798749</v>
       </c>
       <c r="F17">
-        <v>0.6171981794308294</v>
+        <v>1.447060151431799</v>
       </c>
       <c r="G17">
-        <v>0.507152361793004</v>
+        <v>1.427969761569102</v>
       </c>
       <c r="H17">
-        <v>0.4702864774332056</v>
+        <v>0.6888990318979893</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.258292739170741</v>
+        <v>3.856379815513307</v>
       </c>
       <c r="N17">
-        <v>2.30092119317078</v>
+        <v>5.696817721488173</v>
       </c>
       <c r="O17">
-        <v>1.913513906478215</v>
+        <v>4.425308938554451</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06892053265904963</v>
+        <v>0.2215701230155247</v>
       </c>
       <c r="D18">
-        <v>0.002077109934376153</v>
+        <v>0.00647984746125374</v>
       </c>
       <c r="E18">
-        <v>0.04191244979674913</v>
+        <v>0.0008462149596859536</v>
       </c>
       <c r="F18">
-        <v>0.6084176841589937</v>
+        <v>1.408716077031087</v>
       </c>
       <c r="G18">
-        <v>0.4979964071009988</v>
+        <v>1.389196295154704</v>
       </c>
       <c r="H18">
-        <v>0.4669657502940936</v>
+        <v>0.671957125648845</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.228966170413059</v>
+        <v>3.759955964429139</v>
       </c>
       <c r="N18">
-        <v>2.259360927329112</v>
+        <v>5.570594002316284</v>
       </c>
       <c r="O18">
-        <v>1.887068440558778</v>
+        <v>4.30754594497688</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06837943923056855</v>
+        <v>0.219527712498305</v>
       </c>
       <c r="D19">
-        <v>0.002059543159592891</v>
+        <v>0.006424805479639417</v>
       </c>
       <c r="E19">
-        <v>0.04214748664310375</v>
+        <v>0.0007558339118731716</v>
       </c>
       <c r="F19">
-        <v>0.6054512642119789</v>
+        <v>1.395782986316021</v>
       </c>
       <c r="G19">
-        <v>0.4949013813633485</v>
+        <v>1.376118663693461</v>
       </c>
       <c r="H19">
-        <v>0.4658465311307225</v>
+        <v>0.6662471826090552</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.219033615444374</v>
+        <v>3.727337124311688</v>
       </c>
       <c r="N19">
-        <v>2.245290345450655</v>
+        <v>5.527879746642384</v>
       </c>
       <c r="O19">
-        <v>1.87813559077091</v>
+        <v>4.267835075368112</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07081564469505963</v>
+        <v>0.2287400713447454</v>
       </c>
       <c r="D20">
-        <v>0.002138561537723405</v>
+        <v>0.006672625561009227</v>
       </c>
       <c r="E20">
-        <v>0.04110043072404479</v>
+        <v>0.001220620155347518</v>
       </c>
       <c r="F20">
-        <v>0.6188263457869141</v>
+        <v>1.454180786778437</v>
       </c>
       <c r="G20">
-        <v>0.5088493145602513</v>
+        <v>1.435170295650181</v>
       </c>
       <c r="H20">
-        <v>0.4709035040451397</v>
+        <v>0.6920473193138719</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.263718951894802</v>
+        <v>3.874239735696918</v>
       </c>
       <c r="N20">
-        <v>2.308613511958015</v>
+        <v>5.720190030668334</v>
       </c>
       <c r="O20">
-        <v>1.918418419794193</v>
+        <v>4.447182548044111</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07902260848796061</v>
+        <v>0.2600983118550175</v>
       </c>
       <c r="D21">
-        <v>0.002403432877585487</v>
+        <v>0.007507996712547538</v>
       </c>
       <c r="E21">
-        <v>0.03777019789664671</v>
+        <v>0.003873747760751556</v>
       </c>
       <c r="F21">
-        <v>0.6642197636153924</v>
+        <v>1.654129978144013</v>
       </c>
       <c r="G21">
-        <v>0.5560650262067952</v>
+        <v>1.637391940939807</v>
       </c>
       <c r="H21">
-        <v>0.4882515619740389</v>
+        <v>0.780705533951533</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.413633715564913</v>
+        <v>4.370077493898762</v>
       </c>
       <c r="N21">
-        <v>2.52142116855407</v>
+        <v>6.368073408486055</v>
       </c>
       <c r="O21">
-        <v>2.055241944010334</v>
+        <v>5.061970654521303</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08440272494220835</v>
+        <v>0.2809382133225711</v>
       </c>
       <c r="D22">
-        <v>0.002576051577442229</v>
+        <v>0.008056730806515588</v>
       </c>
       <c r="E22">
-        <v>0.03573556309468051</v>
+        <v>0.006518919903589548</v>
       </c>
       <c r="F22">
-        <v>0.6942289906527463</v>
+        <v>1.787962162629924</v>
       </c>
       <c r="G22">
-        <v>0.5871896812987529</v>
+        <v>1.772787103251432</v>
       </c>
       <c r="H22">
-        <v>0.4998570324233356</v>
+        <v>0.840299344909937</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.51143769152533</v>
+        <v>4.69617029390237</v>
       </c>
       <c r="N22">
-        <v>2.660517831285119</v>
+        <v>6.792995555558207</v>
       </c>
       <c r="O22">
-        <v>2.145776512420753</v>
+        <v>5.474064588205351</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08152973922818774</v>
+        <v>0.269781064438078</v>
       </c>
       <c r="D23">
-        <v>0.002483968368611755</v>
+        <v>0.007763555501178132</v>
       </c>
       <c r="E23">
-        <v>0.03680837993740593</v>
+        <v>0.005017123074618102</v>
       </c>
       <c r="F23">
-        <v>0.6781810211586645</v>
+        <v>1.716220133993232</v>
       </c>
       <c r="G23">
-        <v>0.5705532492066538</v>
+        <v>1.700202306835365</v>
       </c>
       <c r="H23">
-        <v>0.4936384200856025</v>
+        <v>0.8083298374436652</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.459254340543723</v>
+        <v>4.521918741995805</v>
       </c>
       <c r="N23">
-        <v>2.586279464566587</v>
+        <v>6.566057106986761</v>
       </c>
       <c r="O23">
-        <v>2.097354050181195</v>
+        <v>5.253099483153107</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0706817791512151</v>
+        <v>0.2282327493586536</v>
       </c>
       <c r="D24">
-        <v>0.002134224484905189</v>
+        <v>0.006659007890508661</v>
       </c>
       <c r="E24">
-        <v>0.04115722871708893</v>
+        <v>0.001191224585921802</v>
       </c>
       <c r="F24">
-        <v>0.618090145961645</v>
+        <v>1.450960672183058</v>
       </c>
       <c r="G24">
-        <v>0.5080820437194404</v>
+        <v>1.431914042353782</v>
       </c>
       <c r="H24">
-        <v>0.4706244580260659</v>
+        <v>0.6906235105134897</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.261265859152431</v>
+        <v>3.866164853955183</v>
       </c>
       <c r="N24">
-        <v>2.305135857049493</v>
+        <v>5.709623155861152</v>
       </c>
       <c r="O24">
-        <v>1.916200742575484</v>
+        <v>4.437290623026684</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05904915692036639</v>
+        <v>0.1846305187053758</v>
       </c>
       <c r="D25">
-        <v>0.001755047841117019</v>
+        <v>0.005475012704124538</v>
       </c>
       <c r="E25">
-        <v>0.04644467003064112</v>
+        <v>0.0003685442035856745</v>
       </c>
       <c r="F25">
-        <v>0.5547216813349962</v>
+        <v>1.176085408241917</v>
       </c>
       <c r="G25">
-        <v>0.4418165940236634</v>
+        <v>1.153972745483145</v>
       </c>
       <c r="H25">
-        <v>0.4469408611618633</v>
+        <v>0.5696194636636847</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.047011733965022</v>
+        <v>3.165409061349479</v>
       </c>
       <c r="N25">
-        <v>2.002088683901547</v>
+        <v>4.791037226571632</v>
       </c>
       <c r="O25">
-        <v>1.725505971028326</v>
+        <v>3.594012230579608</v>
       </c>
     </row>
   </sheetData>
